--- a/asiya_top3_making/shukei/shukei.xlsx
+++ b/asiya_top3_making/shukei/shukei.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nabe0\Desktop\nabepy\boatracer_BOT_making\boatracer_BOT_making\asiya_top3_making\shukei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{FB0EB902-B6A1-4A94-BB58-FB41E212E9C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87A65F3-952D-4D55-BD83-C8D4C4717B47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shukei" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">shukei!$B$1:$I$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1030,11 +1030,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -1096,15 +1096,15 @@
         <v>1180</v>
       </c>
       <c r="G2">
-        <f>(D2/100)*E2</f>
+        <f t="shared" ref="G2:G33" si="0">(D2/100)*E2</f>
         <v>82.818735115109746</v>
       </c>
       <c r="H2">
-        <f>(D2/100)*F2</f>
+        <f t="shared" ref="H2:H33" si="1">(D2/100)*F2</f>
         <v>62.887536385287099</v>
       </c>
       <c r="I2">
-        <f>G2-H2</f>
+        <f t="shared" ref="I2:I33" si="2">G2-H2</f>
         <v>19.931198729822647</v>
       </c>
     </row>
@@ -1128,15 +1128,15 @@
         <v>2655</v>
       </c>
       <c r="G3">
-        <f>(D3/100)*E3</f>
+        <f t="shared" si="0"/>
         <v>82.203228367292581</v>
       </c>
       <c r="H3">
-        <f>(D3/100)*F3</f>
+        <f t="shared" si="1"/>
         <v>58.453559142630098</v>
       </c>
       <c r="I3">
-        <f>G3-H3</f>
+        <f t="shared" si="2"/>
         <v>23.749669224662483</v>
       </c>
     </row>
@@ -1160,15 +1160,15 @@
         <v>845</v>
       </c>
       <c r="G4">
-        <f>(D4/100)*E4</f>
+        <f t="shared" si="0"/>
         <v>80.317544323894737</v>
       </c>
       <c r="H4">
-        <f>(D4/100)*F4</f>
+        <f t="shared" si="1"/>
         <v>58.137073299814695</v>
       </c>
       <c r="I4">
-        <f>G4-H4</f>
+        <f t="shared" si="2"/>
         <v>22.180471024080042</v>
       </c>
     </row>
@@ -1192,15 +1192,15 @@
         <v>3500</v>
       </c>
       <c r="G5">
-        <f>(D5/100)*E5</f>
+        <f t="shared" si="0"/>
         <v>87.252712357766399</v>
       </c>
       <c r="H5">
-        <f>(D5/100)*F5</f>
+        <f t="shared" si="1"/>
         <v>56.681661815294952</v>
       </c>
       <c r="I5">
-        <f>G5-H5</f>
+        <f t="shared" si="2"/>
         <v>30.571050542471447</v>
       </c>
     </row>
@@ -1224,15 +1224,15 @@
         <v>1150</v>
       </c>
       <c r="G6">
-        <f>(D6/100)*E6</f>
+        <f t="shared" si="0"/>
         <v>79.956602275734113</v>
       </c>
       <c r="H6">
-        <f>(D6/100)*F6</f>
+        <f t="shared" si="1"/>
         <v>55.750198465202409</v>
       </c>
       <c r="I6">
-        <f>G6-H6</f>
+        <f t="shared" si="2"/>
         <v>24.206403810531704</v>
       </c>
     </row>
@@ -1256,15 +1256,15 @@
         <v>11650</v>
       </c>
       <c r="G7">
-        <f>(D7/100)*E7</f>
+        <f t="shared" si="0"/>
         <v>71.461762370997533</v>
       </c>
       <c r="H7">
-        <f>(D7/100)*F7</f>
+        <f t="shared" si="1"/>
         <v>55.490870600687948</v>
       </c>
       <c r="I7">
-        <f>G7-H7</f>
+        <f t="shared" si="2"/>
         <v>15.970891770309585</v>
       </c>
     </row>
@@ -1288,15 +1288,15 @@
         <v>8515</v>
       </c>
       <c r="G8">
-        <f>(D8/100)*E8</f>
+        <f t="shared" si="0"/>
         <v>80.587986239745732</v>
       </c>
       <c r="H8">
-        <f>(D8/100)*F8</f>
+        <f t="shared" si="1"/>
         <v>54.979094998676835</v>
       </c>
       <c r="I8">
-        <f>G8-H8</f>
+        <f t="shared" si="2"/>
         <v>25.608891241068896</v>
       </c>
     </row>
@@ -1320,15 +1320,15 @@
         <v>8820</v>
       </c>
       <c r="G9">
-        <f>(D9/100)*E9</f>
+        <f t="shared" si="0"/>
         <v>87.340566287377541</v>
       </c>
       <c r="H9">
-        <f>(D9/100)*F9</f>
+        <f t="shared" si="1"/>
         <v>54.614448266737213</v>
       </c>
       <c r="I9">
-        <f>G9-H9</f>
+        <f t="shared" si="2"/>
         <v>32.726118020640328</v>
       </c>
     </row>
@@ -1352,15 +1352,15 @@
         <v>2380</v>
       </c>
       <c r="G10">
-        <f>(D10/100)*E10</f>
+        <f t="shared" si="0"/>
         <v>92.386874834611916</v>
       </c>
       <c r="H10">
-        <f>(D10/100)*F10</f>
+        <f t="shared" si="1"/>
         <v>54.540354591161481</v>
       </c>
       <c r="I10">
-        <f>G10-H10</f>
+        <f t="shared" si="2"/>
         <v>37.846520243450435</v>
       </c>
     </row>
@@ -1384,15 +1384,15 @@
         <v>10795</v>
       </c>
       <c r="G11">
-        <f>(D11/100)*E11</f>
+        <f t="shared" si="0"/>
         <v>80.285789891505459</v>
       </c>
       <c r="H11">
-        <f>(D11/100)*F11</f>
+        <f t="shared" si="1"/>
         <v>53.703625297697741</v>
       </c>
       <c r="I11">
-        <f>G11-H11</f>
+        <f t="shared" si="2"/>
         <v>26.582164593807718</v>
       </c>
     </row>
@@ -1416,15 +1416,15 @@
         <v>2240</v>
       </c>
       <c r="G12">
-        <f>(D12/100)*E12</f>
+        <f t="shared" si="0"/>
         <v>70.536649907382454</v>
       </c>
       <c r="H12">
-        <f>(D12/100)*F12</f>
+        <f t="shared" si="1"/>
         <v>52.399047367028089</v>
       </c>
       <c r="I12">
-        <f>G12-H12</f>
+        <f t="shared" si="2"/>
         <v>18.137602540354365</v>
       </c>
     </row>
@@ -1448,15 +1448,15 @@
         <v>12990</v>
       </c>
       <c r="G13">
-        <f>(D13/100)*E13</f>
+        <f t="shared" si="0"/>
         <v>77.632177824821241</v>
       </c>
       <c r="H13">
-        <f>(D13/100)*F13</f>
+        <f t="shared" si="1"/>
         <v>52.248743053717845</v>
       </c>
       <c r="I13">
-        <f>G13-H13</f>
+        <f t="shared" si="2"/>
         <v>25.383434771103396</v>
       </c>
     </row>
@@ -1480,15 +1480,15 @@
         <v>1380</v>
       </c>
       <c r="G14">
-        <f>(D14/100)*E14</f>
+        <f t="shared" si="0"/>
         <v>75.392431860280112</v>
       </c>
       <c r="H14">
-        <f>(D14/100)*F14</f>
+        <f t="shared" si="1"/>
         <v>52.220164064567243</v>
       </c>
       <c r="I14">
-        <f>G14-H14</f>
+        <f t="shared" si="2"/>
         <v>23.17226779571287</v>
       </c>
     </row>
@@ -1512,15 +1512,15 @@
         <v>2300</v>
       </c>
       <c r="G15">
-        <f>(D15/100)*E15</f>
+        <f t="shared" si="0"/>
         <v>73.07488753638485</v>
       </c>
       <c r="H15">
-        <f>(D15/100)*F15</f>
+        <f t="shared" si="1"/>
         <v>50.637734850489352</v>
       </c>
       <c r="I15">
-        <f>G15-H15</f>
+        <f t="shared" si="2"/>
         <v>22.437152685895498</v>
       </c>
     </row>
@@ -1544,15 +1544,15 @@
         <v>1910</v>
       </c>
       <c r="G16">
-        <f>(D16/100)*E16</f>
+        <f t="shared" si="0"/>
         <v>73.135220957924872</v>
       </c>
       <c r="H16">
-        <f>(D16/100)*F16</f>
+        <f t="shared" si="1"/>
         <v>50.44138661021416</v>
       </c>
       <c r="I16">
-        <f>G16-H16</f>
+        <f t="shared" si="2"/>
         <v>22.693834347710713</v>
       </c>
     </row>
@@ -1576,15 +1576,15 @@
         <v>33990</v>
       </c>
       <c r="G17">
-        <f>(D17/100)*E17</f>
+        <f t="shared" si="0"/>
         <v>56.332892299549989</v>
       </c>
       <c r="H17">
-        <f>(D17/100)*F17</f>
+        <f t="shared" si="1"/>
         <v>50.368880656258206</v>
       </c>
       <c r="I17">
-        <f>G17-H17</f>
+        <f t="shared" si="2"/>
         <v>5.9640116432917836</v>
       </c>
     </row>
@@ -1608,15 +1608,15 @@
         <v>3220</v>
       </c>
       <c r="G18">
-        <f>(D18/100)*E18</f>
+        <f t="shared" si="0"/>
         <v>78.3376554644084</v>
       </c>
       <c r="H18">
-        <f>(D18/100)*F18</f>
+        <f t="shared" si="1"/>
         <v>50.102143424186259</v>
       </c>
       <c r="I18">
-        <f>G18-H18</f>
+        <f t="shared" si="2"/>
         <v>28.23551204022214</v>
       </c>
     </row>
@@ -1640,15 +1640,15 @@
         <v>5765</v>
       </c>
       <c r="G19">
-        <f>(D19/100)*E19</f>
+        <f t="shared" si="0"/>
         <v>63.23154273617358</v>
       </c>
       <c r="H19">
-        <f>(D19/100)*F19</f>
+        <f t="shared" si="1"/>
         <v>49.427361735908974</v>
       </c>
       <c r="I19">
-        <f>G19-H19</f>
+        <f t="shared" si="2"/>
         <v>13.804181000264606</v>
       </c>
     </row>
@@ -1672,15 +1672,15 @@
         <v>12380</v>
       </c>
       <c r="G20">
-        <f>(D20/100)*E20</f>
+        <f t="shared" si="0"/>
         <v>75.845991002910694</v>
       </c>
       <c r="H20">
-        <f>(D20/100)*F20</f>
+        <f t="shared" si="1"/>
         <v>49.139984122783808</v>
       </c>
       <c r="I20">
-        <f>G20-H20</f>
+        <f t="shared" si="2"/>
         <v>26.706006880126886</v>
       </c>
     </row>
@@ -1704,15 +1704,15 @@
         <v>7960</v>
       </c>
       <c r="G21">
-        <f>(D21/100)*E21</f>
+        <f t="shared" si="0"/>
         <v>66.116432918761234</v>
       </c>
       <c r="H21">
-        <f>(D21/100)*F21</f>
+        <f t="shared" si="1"/>
         <v>48.867954485313518</v>
       </c>
       <c r="I21">
-        <f>G21-H21</f>
+        <f t="shared" si="2"/>
         <v>17.248478433447715</v>
       </c>
     </row>
@@ -1736,15 +1736,15 @@
         <v>1340</v>
       </c>
       <c r="G22">
-        <f>(D22/100)*E22</f>
+        <f t="shared" si="0"/>
         <v>68.536120666842976</v>
       </c>
       <c r="H22">
-        <f>(D22/100)*F22</f>
+        <f t="shared" si="1"/>
         <v>48.36623445355913</v>
       </c>
       <c r="I22">
-        <f>G22-H22</f>
+        <f t="shared" si="2"/>
         <v>20.169886213283846</v>
       </c>
     </row>
@@ -1768,15 +1768,15 @@
         <v>14265</v>
       </c>
       <c r="G23">
-        <f>(D23/100)*E23</f>
+        <f t="shared" si="0"/>
         <v>62.780100555702489</v>
       </c>
       <c r="H23">
-        <f>(D23/100)*F23</f>
+        <f t="shared" si="1"/>
         <v>48.317544323895149</v>
       </c>
       <c r="I23">
-        <f>G23-H23</f>
+        <f t="shared" si="2"/>
         <v>14.462556231807341</v>
       </c>
     </row>
@@ -1800,15 +1800,15 @@
         <v>9960</v>
       </c>
       <c r="G24">
-        <f>(D24/100)*E24</f>
+        <f t="shared" si="0"/>
         <v>77.794654670547644</v>
       </c>
       <c r="H24">
-        <f>(D24/100)*F24</f>
+        <f t="shared" si="1"/>
         <v>47.968245567610474</v>
       </c>
       <c r="I24">
-        <f>G24-H24</f>
+        <f t="shared" si="2"/>
         <v>29.82640910293717</v>
       </c>
     </row>
@@ -1832,15 +1832,15 @@
         <v>1180</v>
       </c>
       <c r="G25">
-        <f>(D25/100)*E25</f>
+        <f t="shared" si="0"/>
         <v>68.70018523418878</v>
       </c>
       <c r="H25">
-        <f>(D25/100)*F25</f>
+        <f t="shared" si="1"/>
         <v>47.899444297433185</v>
       </c>
       <c r="I25">
-        <f>G25-H25</f>
+        <f t="shared" si="2"/>
         <v>20.800740936755595</v>
       </c>
     </row>
@@ -1864,15 +1864,15 @@
         <v>9690</v>
       </c>
       <c r="G26">
-        <f>(D26/100)*E26</f>
+        <f t="shared" si="0"/>
         <v>73.042074622916019</v>
       </c>
       <c r="H26">
-        <f>(D26/100)*F26</f>
+        <f t="shared" si="1"/>
         <v>47.693569727441115</v>
       </c>
       <c r="I26">
-        <f>G26-H26</f>
+        <f t="shared" si="2"/>
         <v>25.348504895474903</v>
       </c>
     </row>
@@ -1896,15 +1896,15 @@
         <v>880</v>
       </c>
       <c r="G27">
-        <f>(D27/100)*E27</f>
+        <f t="shared" si="0"/>
         <v>68.699126753108985</v>
       </c>
       <c r="H27">
-        <f>(D27/100)*F27</f>
+        <f t="shared" si="1"/>
         <v>47.551204022228013</v>
       </c>
       <c r="I27">
-        <f>G27-H27</f>
+        <f t="shared" si="2"/>
         <v>21.147922730880971</v>
       </c>
     </row>
@@ -1928,15 +1928,15 @@
         <v>12090</v>
       </c>
       <c r="G28">
-        <f>(D28/100)*E28</f>
+        <f t="shared" si="0"/>
         <v>68.879597777189389</v>
       </c>
       <c r="H28">
-        <f>(D28/100)*F28</f>
+        <f t="shared" si="1"/>
         <v>47.349034136014765</v>
       </c>
       <c r="I28">
-        <f>G28-H28</f>
+        <f t="shared" si="2"/>
         <v>21.530563641174624</v>
       </c>
     </row>
@@ -1960,15 +1960,15 @@
         <v>1780</v>
       </c>
       <c r="G29">
-        <f>(D29/100)*E29</f>
+        <f t="shared" si="0"/>
         <v>73.023551204021913</v>
       </c>
       <c r="H29">
-        <f>(D29/100)*F29</f>
+        <f t="shared" si="1"/>
         <v>47.008203228367123</v>
       </c>
       <c r="I29">
-        <f>G29-H29</f>
+        <f t="shared" si="2"/>
         <v>26.015347975654791</v>
       </c>
     </row>
@@ -1992,15 +1992,15 @@
         <v>4540</v>
       </c>
       <c r="G30">
-        <f>(D30/100)*E30</f>
+        <f t="shared" si="0"/>
         <v>74.246626091558312</v>
       </c>
       <c r="H30">
-        <f>(D30/100)*F30</f>
+        <f t="shared" si="1"/>
         <v>46.853664990738118</v>
       </c>
       <c r="I30">
-        <f>G30-H30</f>
+        <f t="shared" si="2"/>
         <v>27.392961100820195</v>
       </c>
     </row>
@@ -2024,15 +2024,15 @@
         <v>10285</v>
       </c>
       <c r="G31">
-        <f>(D31/100)*E31</f>
+        <f t="shared" si="0"/>
         <v>68.874834612331156</v>
       </c>
       <c r="H31">
-        <f>(D31/100)*F31</f>
+        <f t="shared" si="1"/>
         <v>46.81185498809203</v>
       </c>
       <c r="I31">
-        <f>G31-H31</f>
+        <f t="shared" si="2"/>
         <v>22.062979624239127</v>
       </c>
     </row>
@@ -2056,15 +2056,15 @@
         <v>4210</v>
       </c>
       <c r="G32">
-        <f>(D32/100)*E32</f>
+        <f t="shared" si="0"/>
         <v>83.536385287112765</v>
       </c>
       <c r="H32">
-        <f>(D32/100)*F32</f>
+        <f t="shared" si="1"/>
         <v>46.567345858692661</v>
       </c>
       <c r="I32">
-        <f>G32-H32</f>
+        <f t="shared" si="2"/>
         <v>36.969039428420103</v>
       </c>
     </row>
@@ -2088,15 +2088,15 @@
         <v>21420</v>
       </c>
       <c r="G33">
-        <f>(D33/100)*E33</f>
+        <f t="shared" si="0"/>
         <v>61.262238687483041</v>
       </c>
       <c r="H33">
-        <f>(D33/100)*F33</f>
+        <f t="shared" si="1"/>
         <v>46.478962688541777</v>
       </c>
       <c r="I33">
-        <f>G33-H33</f>
+        <f t="shared" si="2"/>
         <v>14.783275998941264</v>
       </c>
     </row>
@@ -2120,15 +2120,15 @@
         <v>4930</v>
       </c>
       <c r="G34">
-        <f>(D34/100)*E34</f>
+        <f t="shared" ref="G34:G65" si="3">(D34/100)*E34</f>
         <v>73.275469700979045</v>
       </c>
       <c r="H34">
-        <f>(D34/100)*F34</f>
+        <f t="shared" ref="H34:H65" si="4">(D34/100)*F34</f>
         <v>45.921143159566022</v>
       </c>
       <c r="I34">
-        <f>G34-H34</f>
+        <f t="shared" ref="I34:I65" si="5">G34-H34</f>
         <v>27.354326541413023</v>
       </c>
     </row>
@@ -2152,15 +2152,15 @@
         <v>10720</v>
       </c>
       <c r="G35">
-        <f>(D35/100)*E35</f>
+        <f t="shared" si="3"/>
         <v>82.790156125959157</v>
       </c>
       <c r="H35">
-        <f>(D35/100)*F35</f>
+        <f t="shared" si="4"/>
         <v>45.387668695422022</v>
       </c>
       <c r="I35">
-        <f>G35-H35</f>
+        <f t="shared" si="5"/>
         <v>37.402487430537136</v>
       </c>
     </row>
@@ -2184,15 +2184,15 @@
         <v>37120</v>
       </c>
       <c r="G36">
-        <f>(D36/100)*E36</f>
+        <f t="shared" si="3"/>
         <v>45.006615506747508</v>
       </c>
       <c r="H36">
-        <f>(D36/100)*F36</f>
+        <f t="shared" si="4"/>
         <v>45.1844403281289</v>
       </c>
       <c r="I36">
-        <f>G36-H36</f>
+        <f t="shared" si="5"/>
         <v>-0.17782482138139244</v>
       </c>
     </row>
@@ -2216,15 +2216,15 @@
         <v>17760</v>
       </c>
       <c r="G37">
-        <f>(D37/100)*E37</f>
+        <f t="shared" si="3"/>
         <v>65.550145541148197</v>
       </c>
       <c r="H37">
-        <f>(D37/100)*F37</f>
+        <f t="shared" si="4"/>
         <v>45.116697539031435</v>
       </c>
       <c r="I37">
-        <f>G37-H37</f>
+        <f t="shared" si="5"/>
         <v>20.433448002116762</v>
       </c>
     </row>
@@ -2248,15 +2248,15 @@
         <v>7010</v>
       </c>
       <c r="G38">
-        <f>(D38/100)*E38</f>
+        <f t="shared" si="3"/>
         <v>78.762635617888023</v>
       </c>
       <c r="H38">
-        <f>(D38/100)*F38</f>
+        <f t="shared" si="4"/>
         <v>44.51971421010844</v>
       </c>
       <c r="I38">
-        <f>G38-H38</f>
+        <f t="shared" si="5"/>
         <v>34.242921407779583</v>
       </c>
     </row>
@@ -2280,15 +2280,15 @@
         <v>14440</v>
       </c>
       <c r="G39">
-        <f>(D39/100)*E39</f>
+        <f t="shared" si="3"/>
         <v>67.078592220163827</v>
       </c>
       <c r="H39">
-        <f>(D39/100)*F39</f>
+        <f t="shared" si="4"/>
         <v>44.324953691452713</v>
       </c>
       <c r="I39">
-        <f>G39-H39</f>
+        <f t="shared" si="5"/>
         <v>22.753638528711114</v>
       </c>
     </row>
@@ -2312,15 +2312,15 @@
         <v>3380</v>
       </c>
       <c r="G40">
-        <f>(D40/100)*E40</f>
+        <f t="shared" si="3"/>
         <v>74.777983593543098</v>
       </c>
       <c r="H40">
-        <f>(D40/100)*F40</f>
+        <f t="shared" si="4"/>
         <v>44.005292405398166</v>
       </c>
       <c r="I40">
-        <f>G40-H40</f>
+        <f t="shared" si="5"/>
         <v>30.772691188144933</v>
       </c>
     </row>
@@ -2344,15 +2344,15 @@
         <v>11480</v>
       </c>
       <c r="G41">
-        <f>(D41/100)*E41</f>
+        <f t="shared" si="3"/>
         <v>67.689335803122432</v>
       </c>
       <c r="H41">
-        <f>(D41/100)*F41</f>
+        <f t="shared" si="4"/>
         <v>43.74490605980413</v>
       </c>
       <c r="I41">
-        <f>G41-H41</f>
+        <f t="shared" si="5"/>
         <v>23.944429743318302</v>
       </c>
     </row>
@@ -2376,15 +2376,15 @@
         <v>4605</v>
       </c>
       <c r="G42">
-        <f>(D42/100)*E42</f>
+        <f t="shared" si="3"/>
         <v>55.038369939137255</v>
       </c>
       <c r="H42">
-        <f>(D42/100)*F42</f>
+        <f t="shared" si="4"/>
         <v>43.381317808944168</v>
       </c>
       <c r="I42">
-        <f>G42-H42</f>
+        <f t="shared" si="5"/>
         <v>11.657052130193087</v>
       </c>
     </row>
@@ -2408,15 +2408,15 @@
         <v>2330</v>
       </c>
       <c r="G43">
-        <f>(D43/100)*E43</f>
+        <f t="shared" si="3"/>
         <v>70.190526594336902</v>
       </c>
       <c r="H43">
-        <f>(D43/100)*F43</f>
+        <f t="shared" si="4"/>
         <v>43.036252976977956</v>
       </c>
       <c r="I43">
-        <f>G43-H43</f>
+        <f t="shared" si="5"/>
         <v>27.154273617358946</v>
       </c>
     </row>
@@ -2440,15 +2440,15 @@
         <v>6120</v>
       </c>
       <c r="G44">
-        <f>(D44/100)*E44</f>
+        <f t="shared" si="3"/>
         <v>65.968774808150243</v>
       </c>
       <c r="H44">
-        <f>(D44/100)*F44</f>
+        <f t="shared" si="4"/>
         <v>42.430272558877988</v>
       </c>
       <c r="I44">
-        <f>G44-H44</f>
+        <f t="shared" si="5"/>
         <v>23.538502249272256</v>
       </c>
     </row>
@@ -2472,15 +2472,15 @@
         <v>6335</v>
       </c>
       <c r="G45">
-        <f>(D45/100)*E45</f>
+        <f t="shared" si="3"/>
         <v>75.636411749139782</v>
       </c>
       <c r="H45">
-        <f>(D45/100)*F45</f>
+        <f t="shared" si="4"/>
         <v>42.244509129399262</v>
       </c>
       <c r="I45">
-        <f>G45-H45</f>
+        <f t="shared" si="5"/>
         <v>33.39190261974052</v>
       </c>
     </row>
@@ -2504,15 +2504,15 @@
         <v>24930</v>
       </c>
       <c r="G46">
-        <f>(D46/100)*E46</f>
+        <f t="shared" si="3"/>
         <v>54.041810002646137</v>
       </c>
       <c r="H46">
-        <f>(D46/100)*F46</f>
+        <f t="shared" si="4"/>
         <v>42.220693305107119</v>
       </c>
       <c r="I46">
-        <f>G46-H46</f>
+        <f t="shared" si="5"/>
         <v>11.821116697539019</v>
       </c>
     </row>
@@ -2536,15 +2536,15 @@
         <v>4540</v>
       </c>
       <c r="G47">
-        <f>(D47/100)*E47</f>
+        <f t="shared" si="3"/>
         <v>63.46229161153741</v>
       </c>
       <c r="H47">
-        <f>(D47/100)*F47</f>
+        <f t="shared" si="4"/>
         <v>41.807885684043391</v>
       </c>
       <c r="I47">
-        <f>G47-H47</f>
+        <f t="shared" si="5"/>
         <v>21.654405927494018</v>
       </c>
     </row>
@@ -2568,15 +2568,15 @@
         <v>6335</v>
       </c>
       <c r="G48">
-        <f>(D48/100)*E48</f>
+        <f t="shared" si="3"/>
         <v>65.032019052659308</v>
       </c>
       <c r="H48">
-        <f>(D48/100)*F48</f>
+        <f t="shared" si="4"/>
         <v>41.573961365440546</v>
       </c>
       <c r="I48">
-        <f>G48-H48</f>
+        <f t="shared" si="5"/>
         <v>23.458057687218762</v>
       </c>
     </row>
@@ -2600,15 +2600,15 @@
         <v>11460</v>
       </c>
       <c r="G49">
-        <f>(D49/100)*E49</f>
+        <f t="shared" si="3"/>
         <v>64.135485578195087</v>
       </c>
       <c r="H49">
-        <f>(D49/100)*F49</f>
+        <f t="shared" si="4"/>
         <v>41.242656787509873</v>
       </c>
       <c r="I49">
-        <f>G49-H49</f>
+        <f t="shared" si="5"/>
         <v>22.892828790685215</v>
       </c>
     </row>
@@ -2632,15 +2632,15 @@
         <v>3890</v>
       </c>
       <c r="G50">
-        <f>(D50/100)*E50</f>
+        <f t="shared" si="3"/>
         <v>64.83090764752572</v>
       </c>
       <c r="H50">
-        <f>(D50/100)*F50</f>
+        <f t="shared" si="4"/>
         <v>41.174913998412237</v>
       </c>
       <c r="I50">
-        <f>G50-H50</f>
+        <f t="shared" si="5"/>
         <v>23.655993649113483</v>
       </c>
     </row>
@@ -2664,15 +2664,15 @@
         <v>2065</v>
       </c>
       <c r="G51">
-        <f>(D51/100)*E51</f>
+        <f t="shared" si="3"/>
         <v>64.731939666578256</v>
       </c>
       <c r="H51">
-        <f>(D51/100)*F51</f>
+        <f t="shared" si="4"/>
         <v>40.218047102408036</v>
       </c>
       <c r="I51">
-        <f>G51-H51</f>
+        <f t="shared" si="5"/>
         <v>24.51389256417022</v>
       </c>
     </row>
@@ -2696,15 +2696,15 @@
         <v>9945</v>
       </c>
       <c r="G52">
-        <f>(D52/100)*E52</f>
+        <f t="shared" si="3"/>
         <v>64.09526329716833</v>
       </c>
       <c r="H52">
-        <f>(D52/100)*F52</f>
+        <f t="shared" si="4"/>
         <v>40.001058481079596</v>
       </c>
       <c r="I52">
-        <f>G52-H52</f>
+        <f t="shared" si="5"/>
         <v>24.094204816088734</v>
       </c>
     </row>
@@ -2728,15 +2728,15 @@
         <v>8955</v>
       </c>
       <c r="G53">
-        <f>(D53/100)*E53</f>
+        <f t="shared" si="3"/>
         <v>65.391373379200488</v>
       </c>
       <c r="H53">
-        <f>(D53/100)*F53</f>
+        <f t="shared" si="4"/>
         <v>39.810531886742481</v>
       </c>
       <c r="I53">
-        <f>G53-H53</f>
+        <f t="shared" si="5"/>
         <v>25.580841492458006</v>
       </c>
     </row>
@@ -2760,15 +2760,15 @@
         <v>3420</v>
       </c>
       <c r="G54">
-        <f>(D54/100)*E54</f>
+        <f t="shared" si="3"/>
         <v>76.626091558612856</v>
       </c>
       <c r="H54">
-        <f>(D54/100)*F54</f>
+        <f t="shared" si="4"/>
         <v>39.639057951838844</v>
       </c>
       <c r="I54">
-        <f>G54-H54</f>
+        <f t="shared" si="5"/>
         <v>36.987033606774013</v>
       </c>
     </row>
@@ -2792,15 +2792,15 @@
         <v>1135</v>
       </c>
       <c r="G55">
-        <f>(D55/100)*E55</f>
+        <f t="shared" si="3"/>
         <v>63.777189732733454</v>
       </c>
       <c r="H55">
-        <f>(D55/100)*F55</f>
+        <f t="shared" si="4"/>
         <v>39.405133633236304</v>
       </c>
       <c r="I55">
-        <f>G55-H55</f>
+        <f t="shared" si="5"/>
         <v>24.372056099497151</v>
       </c>
     </row>
@@ -2824,15 +2824,15 @@
         <v>6735</v>
       </c>
       <c r="G56">
-        <f>(D56/100)*E56</f>
+        <f t="shared" si="3"/>
         <v>57.848637205609691</v>
       </c>
       <c r="H56">
-        <f>(D56/100)*F56</f>
+        <f t="shared" si="4"/>
         <v>38.495898385816311</v>
       </c>
       <c r="I56">
-        <f>G56-H56</f>
+        <f t="shared" si="5"/>
         <v>19.35273881979338</v>
       </c>
     </row>
@@ -2856,15 +2856,15 @@
         <v>3900</v>
       </c>
       <c r="G57">
-        <f>(D57/100)*E57</f>
+        <f t="shared" si="3"/>
         <v>61.403016671076969</v>
       </c>
       <c r="H57">
-        <f>(D57/100)*F57</f>
+        <f t="shared" si="4"/>
         <v>37.978301137867156</v>
       </c>
       <c r="I57">
-        <f>G57-H57</f>
+        <f t="shared" si="5"/>
         <v>23.424715533209813</v>
       </c>
     </row>
@@ -2888,15 +2888,15 @@
         <v>4050</v>
       </c>
       <c r="G58">
-        <f>(D58/100)*E58</f>
+        <f t="shared" si="3"/>
         <v>70.286848372585311</v>
       </c>
       <c r="H58">
-        <f>(D58/100)*F58</f>
+        <f t="shared" si="4"/>
         <v>37.295580841492452</v>
       </c>
       <c r="I58">
-        <f>G58-H58</f>
+        <f t="shared" si="5"/>
         <v>32.991267531092859</v>
       </c>
     </row>
@@ -2920,15 +2920,15 @@
         <v>10340</v>
       </c>
       <c r="G59">
-        <f>(D59/100)*E59</f>
+        <f t="shared" si="3"/>
         <v>60.528182058745337</v>
       </c>
       <c r="H59">
-        <f>(D59/100)*F59</f>
+        <f t="shared" si="4"/>
         <v>36.664726118020546</v>
       </c>
       <c r="I59">
-        <f>G59-H59</f>
+        <f t="shared" si="5"/>
         <v>23.863455940724791</v>
       </c>
     </row>
@@ -2952,15 +2952,15 @@
         <v>23250</v>
       </c>
       <c r="G60">
-        <f>(D60/100)*E60</f>
+        <f t="shared" si="3"/>
         <v>45.145805768721537</v>
       </c>
       <c r="H60">
-        <f>(D60/100)*F60</f>
+        <f t="shared" si="4"/>
         <v>35.684043397724103</v>
       </c>
       <c r="I60">
-        <f>G60-H60</f>
+        <f t="shared" si="5"/>
         <v>9.4617623709974339</v>
       </c>
     </row>
@@ -2984,15 +2984,15 @@
         <v>15680</v>
       </c>
       <c r="G61">
-        <f>(D61/100)*E61</f>
+        <f t="shared" si="3"/>
         <v>56.2736173590894</v>
       </c>
       <c r="H61">
-        <f>(D61/100)*F61</f>
+        <f t="shared" si="4"/>
         <v>35.68351415718432</v>
       </c>
       <c r="I61">
-        <f>G61-H61</f>
+        <f t="shared" si="5"/>
         <v>20.59010320190508</v>
       </c>
     </row>
@@ -3016,15 +3016,15 @@
         <v>9740</v>
       </c>
       <c r="G62">
-        <f>(D62/100)*E62</f>
+        <f t="shared" si="3"/>
         <v>60.869542206932607</v>
       </c>
       <c r="H62">
-        <f>(D62/100)*F62</f>
+        <f t="shared" si="4"/>
         <v>35.568139719502426</v>
       </c>
       <c r="I62">
-        <f>G62-H62</f>
+        <f t="shared" si="5"/>
         <v>25.301402487430181</v>
       </c>
     </row>
@@ -3048,15 +3048,15 @@
         <v>14290</v>
       </c>
       <c r="G63">
-        <f>(D63/100)*E63</f>
+        <f t="shared" si="3"/>
         <v>57.197671341624506</v>
       </c>
       <c r="H63">
-        <f>(D63/100)*F63</f>
+        <f t="shared" si="4"/>
         <v>35.545382376289908</v>
       </c>
       <c r="I63">
-        <f>G63-H63</f>
+        <f t="shared" si="5"/>
         <v>21.652288965334598</v>
       </c>
     </row>
@@ -3080,15 +3080,15 @@
         <v>7620</v>
       </c>
       <c r="G64">
-        <f>(D64/100)*E64</f>
+        <f t="shared" si="3"/>
         <v>69.230484255093572</v>
       </c>
       <c r="H64">
-        <f>(D64/100)*F64</f>
+        <f t="shared" si="4"/>
         <v>35.488753638528671</v>
       </c>
       <c r="I64">
-        <f>G64-H64</f>
+        <f t="shared" si="5"/>
         <v>33.741730616564901</v>
       </c>
     </row>
@@ -3112,15 +3112,15 @@
         <v>5175</v>
       </c>
       <c r="G65">
-        <f>(D65/100)*E65</f>
+        <f t="shared" si="3"/>
         <v>57.922201640645604</v>
       </c>
       <c r="H65">
-        <f>(D65/100)*F65</f>
+        <f t="shared" si="4"/>
         <v>35.056893358031182</v>
       </c>
       <c r="I65">
-        <f>G65-H65</f>
+        <f t="shared" si="5"/>
         <v>22.865308282614421</v>
       </c>
     </row>
@@ -3144,15 +3144,15 @@
         <v>5580</v>
       </c>
       <c r="G66">
-        <f>(D66/100)*E66</f>
+        <f t="shared" ref="G66:G97" si="6">(D66/100)*E66</f>
         <v>53.326276792802297</v>
       </c>
       <c r="H66">
-        <f>(D66/100)*F66</f>
+        <f t="shared" ref="H66:H97" si="7">(D66/100)*F66</f>
         <v>33.961365440592736</v>
       </c>
       <c r="I66">
-        <f>G66-H66</f>
+        <f t="shared" ref="I66:I97" si="8">G66-H66</f>
         <v>19.36491135220956</v>
       </c>
     </row>
@@ -3176,15 +3176,15 @@
         <v>16010</v>
       </c>
       <c r="G67">
-        <f>(D67/100)*E67</f>
+        <f t="shared" si="6"/>
         <v>49.010849431066234</v>
       </c>
       <c r="H67">
-        <f>(D67/100)*F67</f>
+        <f t="shared" si="7"/>
         <v>33.045250066154949</v>
       </c>
       <c r="I67">
-        <f>G67-H67</f>
+        <f t="shared" si="8"/>
         <v>15.965599364911284</v>
       </c>
     </row>
@@ -3208,15 +3208,15 @@
         <v>4500</v>
       </c>
       <c r="G68">
-        <f>(D68/100)*E68</f>
+        <f t="shared" si="6"/>
         <v>56.31436888065614</v>
       </c>
       <c r="H68">
-        <f>(D68/100)*F68</f>
+        <f t="shared" si="7"/>
         <v>31.913204551468603</v>
       </c>
       <c r="I68">
-        <f>G68-H68</f>
+        <f t="shared" si="8"/>
         <v>24.401164329187537</v>
       </c>
     </row>
@@ -3240,15 +3240,15 @@
         <v>18270</v>
       </c>
       <c r="G69">
-        <f>(D69/100)*E69</f>
+        <f t="shared" si="6"/>
         <v>48.995501455411173</v>
       </c>
       <c r="H69">
-        <f>(D69/100)*F69</f>
+        <f t="shared" si="7"/>
         <v>31.908441386610086</v>
       </c>
       <c r="I69">
-        <f>G69-H69</f>
+        <f t="shared" si="8"/>
         <v>17.087060068801087</v>
       </c>
     </row>
@@ -3272,15 +3272,15 @@
         <v>2920</v>
       </c>
       <c r="G70">
-        <f>(D70/100)*E70</f>
+        <f t="shared" si="6"/>
         <v>60.885419423127615</v>
       </c>
       <c r="H70">
-        <f>(D70/100)*F70</f>
+        <f t="shared" si="7"/>
         <v>31.834876951574426</v>
       </c>
       <c r="I70">
-        <f>G70-H70</f>
+        <f t="shared" si="8"/>
         <v>29.050542471553189</v>
       </c>
     </row>
@@ -3304,15 +3304,15 @@
         <v>6890</v>
       </c>
       <c r="G71">
-        <f>(D71/100)*E71</f>
+        <f t="shared" si="6"/>
         <v>56.067742789097302</v>
       </c>
       <c r="H71">
-        <f>(D71/100)*F71</f>
+        <f t="shared" si="7"/>
         <v>31.724265678750989</v>
       </c>
       <c r="I71">
-        <f>G71-H71</f>
+        <f t="shared" si="8"/>
         <v>24.343477110346313</v>
       </c>
     </row>
@@ -3336,15 +3336,15 @@
         <v>8190</v>
       </c>
       <c r="G72">
-        <f>(D72/100)*E72</f>
+        <f t="shared" si="6"/>
         <v>51.306165652288719</v>
       </c>
       <c r="H72">
-        <f>(D72/100)*F72</f>
+        <f t="shared" si="7"/>
         <v>31.641704154538161</v>
       </c>
       <c r="I72">
-        <f>G72-H72</f>
+        <f t="shared" si="8"/>
         <v>19.664461497750558</v>
       </c>
     </row>
@@ -3368,15 +3368,15 @@
         <v>7430</v>
       </c>
       <c r="G73">
-        <f>(D73/100)*E73</f>
+        <f t="shared" si="6"/>
         <v>54.678486372056042</v>
       </c>
       <c r="H73">
-        <f>(D73/100)*F73</f>
+        <f t="shared" si="7"/>
         <v>31.458057687218808</v>
       </c>
       <c r="I73">
-        <f>G73-H73</f>
+        <f t="shared" si="8"/>
         <v>23.220428684837234</v>
       </c>
     </row>
@@ -3400,15 +3400,15 @@
         <v>7210</v>
       </c>
       <c r="G74">
-        <f>(D74/100)*E74</f>
+        <f t="shared" si="6"/>
         <v>45.709976184175311</v>
       </c>
       <c r="H74">
-        <f>(D74/100)*F74</f>
+        <f t="shared" si="7"/>
         <v>31.289759195554343</v>
       </c>
       <c r="I74">
-        <f>G74-H74</f>
+        <f t="shared" si="8"/>
         <v>14.420216988620968</v>
       </c>
     </row>
@@ -3432,15 +3432,15 @@
         <v>10670</v>
       </c>
       <c r="G75">
-        <f>(D75/100)*E75</f>
+        <f t="shared" si="6"/>
         <v>38.072505953955776</v>
       </c>
       <c r="H75">
-        <f>(D75/100)*F75</f>
+        <f t="shared" si="7"/>
         <v>31.058481079650608</v>
       </c>
       <c r="I75">
-        <f>G75-H75</f>
+        <f t="shared" si="8"/>
         <v>7.0140248743051679</v>
       </c>
     </row>
@@ -3464,15 +3464,15 @@
         <v>15840</v>
       </c>
       <c r="G76">
-        <f>(D76/100)*E76</f>
+        <f t="shared" si="6"/>
         <v>41.451177560200946</v>
       </c>
       <c r="H76">
-        <f>(D76/100)*F76</f>
+        <f t="shared" si="7"/>
         <v>31.017729558084035</v>
       </c>
       <c r="I76">
-        <f>G76-H76</f>
+        <f t="shared" si="8"/>
         <v>10.433448002116911</v>
       </c>
     </row>
@@ -3496,15 +3496,15 @@
         <v>8980</v>
       </c>
       <c r="G77">
-        <f>(D77/100)*E77</f>
+        <f t="shared" si="6"/>
         <v>42.758401693569404</v>
       </c>
       <c r="H77">
-        <f>(D77/100)*F77</f>
+        <f t="shared" si="7"/>
         <v>30.891770309605636</v>
       </c>
       <c r="I77">
-        <f>G77-H77</f>
+        <f t="shared" si="8"/>
         <v>11.866631383963767</v>
       </c>
     </row>
@@ -3528,15 +3528,15 @@
         <v>20845</v>
       </c>
       <c r="G78">
-        <f>(D78/100)*E78</f>
+        <f t="shared" si="6"/>
         <v>40.59169092352461</v>
       </c>
       <c r="H78">
-        <f>(D78/100)*F78</f>
+        <f t="shared" si="7"/>
         <v>30.889653347446377</v>
       </c>
       <c r="I78">
-        <f>G78-H78</f>
+        <f t="shared" si="8"/>
         <v>9.7020375760782329</v>
       </c>
     </row>
@@ -3560,15 +3560,15 @@
         <v>27780</v>
       </c>
       <c r="G79">
-        <f>(D79/100)*E79</f>
+        <f t="shared" si="6"/>
         <v>37.560201111404815</v>
       </c>
       <c r="H79">
-        <f>(D79/100)*F79</f>
+        <f t="shared" si="7"/>
         <v>30.874834612331131</v>
       </c>
       <c r="I79">
-        <f>G79-H79</f>
+        <f t="shared" si="8"/>
         <v>6.6853664990736839</v>
       </c>
     </row>
@@ -3592,15 +3592,15 @@
         <v>6320</v>
       </c>
       <c r="G80">
-        <f>(D80/100)*E80</f>
+        <f t="shared" si="6"/>
         <v>49.3019317279701</v>
       </c>
       <c r="H80">
-        <f>(D80/100)*F80</f>
+        <f t="shared" si="7"/>
         <v>30.772161947605152</v>
       </c>
       <c r="I80">
-        <f>G80-H80</f>
+        <f t="shared" si="8"/>
         <v>18.529769780364948</v>
       </c>
     </row>
@@ -3624,15 +3624,15 @@
         <v>3300</v>
       </c>
       <c r="G81">
-        <f>(D81/100)*E81</f>
+        <f t="shared" si="6"/>
         <v>55.052659433712542</v>
       </c>
       <c r="H81">
-        <f>(D81/100)*F81</f>
+        <f t="shared" si="7"/>
         <v>30.738290553056366</v>
       </c>
       <c r="I81">
-        <f>G81-H81</f>
+        <f t="shared" si="8"/>
         <v>24.314368880656176</v>
       </c>
     </row>
@@ -3656,15 +3656,15 @@
         <v>8780</v>
       </c>
       <c r="G82">
-        <f>(D82/100)*E82</f>
+        <f t="shared" si="6"/>
         <v>54.156655199788098</v>
       </c>
       <c r="H82">
-        <f>(D82/100)*F82</f>
+        <f t="shared" si="7"/>
         <v>30.668430801799381</v>
       </c>
       <c r="I82">
-        <f>G82-H82</f>
+        <f t="shared" si="8"/>
         <v>23.488224397988716</v>
       </c>
     </row>
@@ -3688,15 +3688,15 @@
         <v>12660</v>
       </c>
       <c r="G83">
-        <f>(D83/100)*E83</f>
+        <f t="shared" si="6"/>
         <v>53.631119343741524</v>
       </c>
       <c r="H83">
-        <f>(D83/100)*F83</f>
+        <f t="shared" si="7"/>
         <v>30.150833553850124</v>
       </c>
       <c r="I83">
-        <f>G83-H83</f>
+        <f t="shared" si="8"/>
         <v>23.480285789891401</v>
       </c>
     </row>
@@ -3720,15 +3720,15 @@
         <v>10085</v>
       </c>
       <c r="G84">
-        <f>(D84/100)*E84</f>
+        <f t="shared" si="6"/>
         <v>47.243186028049564</v>
       </c>
       <c r="H84">
-        <f>(D84/100)*F84</f>
+        <f t="shared" si="7"/>
         <v>29.889388727176467</v>
       </c>
       <c r="I84">
-        <f>G84-H84</f>
+        <f t="shared" si="8"/>
         <v>17.353797300873097</v>
       </c>
     </row>
@@ -3752,15 +3752,15 @@
         <v>12530</v>
       </c>
       <c r="G85">
-        <f>(D85/100)*E85</f>
+        <f t="shared" si="6"/>
         <v>53.207197671341419</v>
       </c>
       <c r="H85">
-        <f>(D85/100)*F85</f>
+        <f t="shared" si="7"/>
         <v>29.841227838052294</v>
       </c>
       <c r="I85">
-        <f>G85-H85</f>
+        <f t="shared" si="8"/>
         <v>23.365969833289125</v>
       </c>
     </row>
@@ -3784,15 +3784,15 @@
         <v>7940</v>
       </c>
       <c r="G86">
-        <f>(D86/100)*E86</f>
+        <f t="shared" si="6"/>
         <v>49.621063773484629</v>
       </c>
       <c r="H86">
-        <f>(D86/100)*F86</f>
+        <f t="shared" si="7"/>
         <v>29.835406192114242</v>
       </c>
       <c r="I86">
-        <f>G86-H86</f>
+        <f t="shared" si="8"/>
         <v>19.785657581370387</v>
       </c>
     </row>
@@ -3816,15 +3816,15 @@
         <v>29440</v>
       </c>
       <c r="G87">
-        <f>(D87/100)*E87</f>
+        <f t="shared" si="6"/>
         <v>32.10267266472588</v>
       </c>
       <c r="H87">
-        <f>(D87/100)*F87</f>
+        <f t="shared" si="7"/>
         <v>29.603598835670628</v>
       </c>
       <c r="I87">
-        <f>G87-H87</f>
+        <f t="shared" si="8"/>
         <v>2.4990738290552521</v>
       </c>
     </row>
@@ -3848,15 +3848,15 @@
         <v>18630</v>
       </c>
       <c r="G88">
-        <f>(D88/100)*E88</f>
+        <f t="shared" si="6"/>
         <v>44.039693040486576</v>
       </c>
       <c r="H88">
-        <f>(D88/100)*F88</f>
+        <f t="shared" si="7"/>
         <v>28.593278645144089</v>
       </c>
       <c r="I88">
-        <f>G88-H88</f>
+        <f t="shared" si="8"/>
         <v>15.446414395342487</v>
       </c>
     </row>
@@ -3880,15 +3880,15 @@
         <v>9525</v>
       </c>
       <c r="G89">
-        <f>(D89/100)*E89</f>
+        <f t="shared" si="6"/>
         <v>56.578459910028826</v>
       </c>
       <c r="H89">
-        <f>(D89/100)*F89</f>
+        <f t="shared" si="7"/>
         <v>28.229690394284166</v>
       </c>
       <c r="I89">
-        <f>G89-H89</f>
+        <f t="shared" si="8"/>
         <v>28.34876951574466</v>
       </c>
     </row>
@@ -3912,15 +3912,15 @@
         <v>8470</v>
       </c>
       <c r="G90">
-        <f>(D90/100)*E90</f>
+        <f t="shared" si="6"/>
         <v>57.832759989415116</v>
       </c>
       <c r="H90">
-        <f>(D90/100)*F90</f>
+        <f t="shared" si="7"/>
         <v>27.79253770838843</v>
       </c>
       <c r="I90">
-        <f>G90-H90</f>
+        <f t="shared" si="8"/>
         <v>30.040222281026686</v>
       </c>
     </row>
@@ -3944,15 +3944,15 @@
         <v>16800</v>
       </c>
       <c r="G91">
-        <f>(D91/100)*E91</f>
+        <f t="shared" si="6"/>
         <v>35.263297168562843</v>
       </c>
       <c r="H91">
-        <f>(D91/100)*F91</f>
+        <f t="shared" si="7"/>
         <v>27.562847314104143</v>
       </c>
       <c r="I91">
-        <f>G91-H91</f>
+        <f t="shared" si="8"/>
         <v>7.7004498544587001</v>
       </c>
     </row>
@@ -3976,15 +3976,15 @@
         <v>10380</v>
       </c>
       <c r="G92">
-        <f>(D92/100)*E92</f>
+        <f t="shared" si="6"/>
         <v>40.197406721354639</v>
       </c>
       <c r="H92">
-        <f>(D92/100)*F92</f>
+        <f t="shared" si="7"/>
         <v>26.368880656258238</v>
       </c>
       <c r="I92">
-        <f>G92-H92</f>
+        <f t="shared" si="8"/>
         <v>13.828526065096401</v>
       </c>
     </row>
@@ -4008,15 +4008,15 @@
         <v>9400</v>
       </c>
       <c r="G93">
-        <f>(D93/100)*E93</f>
+        <f t="shared" si="6"/>
         <v>52.763164858427864</v>
       </c>
       <c r="H93">
-        <f>(D93/100)*F93</f>
+        <f t="shared" si="7"/>
         <v>26.366763694098893</v>
       </c>
       <c r="I93">
-        <f>G93-H93</f>
+        <f t="shared" si="8"/>
         <v>26.396401164328971</v>
       </c>
     </row>
@@ -4040,15 +4040,15 @@
         <v>4930</v>
       </c>
       <c r="G94">
-        <f>(D94/100)*E94</f>
+        <f t="shared" si="6"/>
         <v>43.235776660492135</v>
       </c>
       <c r="H94">
-        <f>(D94/100)*F94</f>
+        <f t="shared" si="7"/>
         <v>26.352474199523677</v>
       </c>
       <c r="I94">
-        <f>G94-H94</f>
+        <f t="shared" si="8"/>
         <v>16.883302460968459</v>
       </c>
     </row>
@@ -4072,15 +4072,15 @@
         <v>5150</v>
       </c>
       <c r="G95">
-        <f>(D95/100)*E95</f>
+        <f t="shared" si="6"/>
         <v>58.665784599100043</v>
       </c>
       <c r="H95">
-        <f>(D95/100)*F95</f>
+        <f t="shared" si="7"/>
         <v>26.165652288965301</v>
       </c>
       <c r="I95">
-        <f>G95-H95</f>
+        <f t="shared" si="8"/>
         <v>32.500132310134745</v>
       </c>
     </row>
@@ -4104,15 +4104,15 @@
         <v>21260</v>
       </c>
       <c r="G96">
-        <f>(D96/100)*E96</f>
+        <f t="shared" si="6"/>
         <v>33.579783011378453</v>
       </c>
       <c r="H96">
-        <f>(D96/100)*F96</f>
+        <f t="shared" si="7"/>
         <v>25.878803916379862</v>
       </c>
       <c r="I96">
-        <f>G96-H96</f>
+        <f t="shared" si="8"/>
         <v>7.7009790949985906</v>
       </c>
     </row>
@@ -4136,15 +4136,15 @@
         <v>9060</v>
       </c>
       <c r="G97">
-        <f>(D97/100)*E97</f>
+        <f t="shared" si="6"/>
         <v>53.521037311457818</v>
       </c>
       <c r="H97">
-        <f>(D97/100)*F97</f>
+        <f t="shared" si="7"/>
         <v>25.413072241333612</v>
       </c>
       <c r="I97">
-        <f>G97-H97</f>
+        <f t="shared" si="8"/>
         <v>28.107965070124205</v>
       </c>
     </row>
@@ -4168,15 +4168,15 @@
         <v>23865</v>
       </c>
       <c r="G98">
-        <f>(D98/100)*E98</f>
+        <f t="shared" ref="G98:G120" si="9">(D98/100)*E98</f>
         <v>33.553320984387369</v>
       </c>
       <c r="H98">
-        <f>(D98/100)*F98</f>
+        <f t="shared" ref="H98:H120" si="10">(D98/100)*F98</f>
         <v>25.26065096586396</v>
       </c>
       <c r="I98">
-        <f>G98-H98</f>
+        <f t="shared" ref="I98:I129" si="11">G98-H98</f>
         <v>8.2926700185234097</v>
       </c>
     </row>
@@ -4200,15 +4200,15 @@
         <v>14170</v>
       </c>
       <c r="G99">
-        <f>(D99/100)*E99</f>
+        <f t="shared" si="9"/>
         <v>38.510187880391484</v>
       </c>
       <c r="H99">
-        <f>(D99/100)*F99</f>
+        <f t="shared" si="10"/>
         <v>24.747816882773119</v>
       </c>
       <c r="I99">
-        <f>G99-H99</f>
+        <f t="shared" si="11"/>
         <v>13.762370997618365</v>
       </c>
     </row>
@@ -4232,15 +4232,15 @@
         <v>9160</v>
       </c>
       <c r="G100">
-        <f>(D100/100)*E100</f>
+        <f t="shared" si="9"/>
         <v>52.34771103466484</v>
       </c>
       <c r="H100">
-        <f>(D100/100)*F100</f>
+        <f t="shared" si="10"/>
         <v>24.724001058481004</v>
       </c>
       <c r="I100">
-        <f>G100-H100</f>
+        <f t="shared" si="11"/>
         <v>27.623709976183836</v>
       </c>
     </row>
@@ -4264,15 +4264,15 @@
         <v>17090</v>
       </c>
       <c r="G101">
-        <f>(D101/100)*E101</f>
+        <f t="shared" si="9"/>
         <v>34.846255623180539</v>
       </c>
       <c r="H101">
-        <f>(D101/100)*F101</f>
+        <f t="shared" si="10"/>
         <v>24.420746229161043</v>
       </c>
       <c r="I101">
-        <f>G101-H101</f>
+        <f t="shared" si="11"/>
         <v>10.425509394019496</v>
       </c>
     </row>
@@ -4296,15 +4296,15 @@
         <v>19270</v>
       </c>
       <c r="G102">
-        <f>(D102/100)*E102</f>
+        <f t="shared" si="9"/>
         <v>33.952368351415451</v>
       </c>
       <c r="H102">
-        <f>(D102/100)*F102</f>
+        <f t="shared" si="10"/>
         <v>23.456469965599243</v>
       </c>
       <c r="I102">
-        <f>G102-H102</f>
+        <f t="shared" si="11"/>
         <v>10.495898385816208</v>
       </c>
     </row>
@@ -4328,15 +4328,15 @@
         <v>11590</v>
       </c>
       <c r="G103">
-        <f>(D103/100)*E103</f>
+        <f t="shared" si="9"/>
         <v>38.537708388462441</v>
       </c>
       <c r="H103">
-        <f>(D103/100)*F103</f>
+        <f t="shared" si="10"/>
         <v>23.308811854988061</v>
       </c>
       <c r="I103">
-        <f>G103-H103</f>
+        <f t="shared" si="11"/>
         <v>15.22889653347438</v>
       </c>
     </row>
@@ -4360,15 +4360,15 @@
         <v>12560</v>
       </c>
       <c r="G104">
-        <f>(D104/100)*E104</f>
+        <f t="shared" si="9"/>
         <v>40.387404075151863</v>
       </c>
       <c r="H104">
-        <f>(D104/100)*F104</f>
+        <f t="shared" si="10"/>
         <v>23.265414130722323</v>
       </c>
       <c r="I104">
-        <f>G104-H104</f>
+        <f t="shared" si="11"/>
         <v>17.12198994442954</v>
       </c>
     </row>
@@ -4392,15 +4392,15 @@
         <v>25200</v>
       </c>
       <c r="G105">
-        <f>(D105/100)*E105</f>
+        <f t="shared" si="9"/>
         <v>27.443768192643478</v>
       </c>
       <c r="H105">
-        <f>(D105/100)*F105</f>
+        <f t="shared" si="10"/>
         <v>22.672664726118022</v>
       </c>
       <c r="I105">
-        <f>G105-H105</f>
+        <f t="shared" si="11"/>
         <v>4.7711034665254566</v>
       </c>
     </row>
@@ -4424,15 +4424,15 @@
         <v>10390</v>
       </c>
       <c r="G106">
-        <f>(D106/100)*E106</f>
+        <f t="shared" si="9"/>
         <v>35.011378671606096</v>
       </c>
       <c r="H106">
-        <f>(D106/100)*F106</f>
+        <f t="shared" si="10"/>
         <v>22.54511775602003</v>
       </c>
       <c r="I106">
-        <f>G106-H106</f>
+        <f t="shared" si="11"/>
         <v>12.466260915586066</v>
       </c>
     </row>
@@ -4456,15 +4456,15 @@
         <v>10860</v>
       </c>
       <c r="G107">
-        <f>(D107/100)*E107</f>
+        <f t="shared" si="9"/>
         <v>39.653876686953929</v>
       </c>
       <c r="H107">
-        <f>(D107/100)*F107</f>
+        <f t="shared" si="10"/>
         <v>22.415453823762821</v>
       </c>
       <c r="I107">
-        <f>G107-H107</f>
+        <f t="shared" si="11"/>
         <v>17.238422863191108</v>
       </c>
     </row>
@@ -4488,15 +4488,15 @@
         <v>34955</v>
       </c>
       <c r="G108">
-        <f>(D108/100)*E108</f>
+        <f t="shared" si="9"/>
         <v>22.691188145011836</v>
       </c>
       <c r="H108">
-        <f>(D108/100)*F108</f>
+        <f t="shared" si="10"/>
         <v>22.19952368351413</v>
       </c>
       <c r="I108">
-        <f>G108-H108</f>
+        <f t="shared" si="11"/>
         <v>0.49166446149770593</v>
       </c>
     </row>
@@ -4520,15 +4520,15 @@
         <v>6950</v>
       </c>
       <c r="G109">
-        <f>(D109/100)*E109</f>
+        <f t="shared" si="9"/>
         <v>38.04710240804441</v>
       </c>
       <c r="H109">
-        <f>(D109/100)*F109</f>
+        <f t="shared" si="10"/>
         <v>20.59804181000262</v>
       </c>
       <c r="I109">
-        <f>G109-H109</f>
+        <f t="shared" si="11"/>
         <v>17.44906059804179</v>
       </c>
     </row>
@@ -4552,15 +4552,15 @@
         <v>9475</v>
       </c>
       <c r="G110">
-        <f>(D110/100)*E110</f>
+        <f t="shared" si="9"/>
         <v>30.950516009526297</v>
       </c>
       <c r="H110">
-        <f>(D110/100)*F110</f>
+        <f t="shared" si="10"/>
         <v>20.058216459380766</v>
       </c>
       <c r="I110">
-        <f>G110-H110</f>
+        <f t="shared" si="11"/>
         <v>10.89229955014553</v>
       </c>
     </row>
@@ -4584,15 +4584,15 @@
         <v>13670</v>
       </c>
       <c r="G111">
-        <f>(D111/100)*E111</f>
+        <f t="shared" si="9"/>
         <v>31.998941518920155</v>
       </c>
       <c r="H111">
-        <f>(D111/100)*F111</f>
+        <f t="shared" si="10"/>
         <v>19.533739084413778</v>
       </c>
       <c r="I111">
-        <f>G111-H111</f>
+        <f t="shared" si="11"/>
         <v>12.465202434506377</v>
       </c>
     </row>
@@ -4616,15 +4616,15 @@
         <v>3945</v>
       </c>
       <c r="G112">
-        <f>(D112/100)*E112</f>
+        <f t="shared" si="9"/>
         <v>49.473405662873276</v>
       </c>
       <c r="H112">
-        <f>(D112/100)*F112</f>
+        <f t="shared" si="10"/>
         <v>19.208256152421257</v>
       </c>
       <c r="I112">
-        <f>G112-H112</f>
+        <f t="shared" si="11"/>
         <v>30.265149510452019</v>
       </c>
     </row>
@@ -4648,15 +4648,15 @@
         <v>23820</v>
       </c>
       <c r="G113">
-        <f>(D113/100)*E113</f>
+        <f t="shared" si="9"/>
         <v>27.337920084678398</v>
       </c>
       <c r="H113">
-        <f>(D113/100)*F113</f>
+        <f t="shared" si="10"/>
         <v>18.909764487959755</v>
       </c>
       <c r="I113">
-        <f>G113-H113</f>
+        <f t="shared" si="11"/>
         <v>8.4281555967186428</v>
       </c>
     </row>
@@ -4680,15 +4680,15 @@
         <v>16145</v>
       </c>
       <c r="G114">
-        <f>(D114/100)*E114</f>
+        <f t="shared" si="9"/>
         <v>29.842815559671735</v>
       </c>
       <c r="H114">
-        <f>(D114/100)*F114</f>
+        <f t="shared" si="10"/>
         <v>18.798094734056608</v>
       </c>
       <c r="I114">
-        <f>G114-H114</f>
+        <f t="shared" si="11"/>
         <v>11.044720825615126</v>
       </c>
     </row>
@@ -4712,15 +4712,15 @@
         <v>10680</v>
       </c>
       <c r="G115">
-        <f>(D115/100)*E115</f>
+        <f t="shared" si="9"/>
         <v>36.972744112198718</v>
       </c>
       <c r="H115">
-        <f>(D115/100)*F115</f>
+        <f t="shared" si="10"/>
         <v>18.652553585604583</v>
       </c>
       <c r="I115">
-        <f>G115-H115</f>
+        <f t="shared" si="11"/>
         <v>18.320190526594136</v>
       </c>
     </row>
@@ -4744,15 +4744,15 @@
         <v>31200</v>
       </c>
       <c r="G116">
-        <f>(D116/100)*E116</f>
+        <f t="shared" si="9"/>
         <v>21.831701508335463</v>
       </c>
       <c r="H116">
-        <f>(D116/100)*F116</f>
+        <f t="shared" si="10"/>
         <v>18.163535326806013</v>
       </c>
       <c r="I116">
-        <f>G116-H116</f>
+        <f t="shared" si="11"/>
         <v>3.6681661815294504</v>
       </c>
     </row>
@@ -4776,15 +4776,15 @@
         <v>6420</v>
       </c>
       <c r="G117">
-        <f>(D117/100)*E117</f>
+        <f t="shared" si="9"/>
         <v>46.372056099497016</v>
       </c>
       <c r="H117">
-        <f>(D117/100)*F117</f>
+        <f t="shared" si="10"/>
         <v>16.648848901825829</v>
       </c>
       <c r="I117">
-        <f>G117-H117</f>
+        <f t="shared" si="11"/>
         <v>29.723207197671186</v>
       </c>
     </row>
@@ -4808,15 +4808,15 @@
         <v>22150</v>
       </c>
       <c r="G118">
-        <f>(D118/100)*E118</f>
+        <f t="shared" si="9"/>
         <v>18.683249536914484</v>
       </c>
       <c r="H118">
-        <f>(D118/100)*F118</f>
+        <f t="shared" si="10"/>
         <v>14.067213548557802</v>
       </c>
       <c r="I118">
-        <f>G118-H118</f>
+        <f t="shared" si="11"/>
         <v>4.6160359883566819</v>
       </c>
     </row>
@@ -4840,15 +4840,15 @@
         <v>13205</v>
       </c>
       <c r="G119">
-        <f>(D119/100)*E119</f>
+        <f t="shared" si="9"/>
         <v>26.502778512834055</v>
       </c>
       <c r="H119">
-        <f>(D119/100)*F119</f>
+        <f t="shared" si="10"/>
         <v>13.977242656787494</v>
       </c>
       <c r="I119">
-        <f>G119-H119</f>
+        <f t="shared" si="11"/>
         <v>12.525535856046561</v>
       </c>
     </row>
@@ -4872,20 +4872,20 @@
         <v>16920</v>
       </c>
       <c r="G120">
-        <f>(D120/100)*E120</f>
+        <f t="shared" si="9"/>
         <v>20.584810796506947</v>
       </c>
       <c r="H120">
-        <f>(D120/100)*F120</f>
+        <f t="shared" si="10"/>
         <v>12.536649907382889</v>
       </c>
       <c r="I120">
-        <f>G120-H120</f>
+        <f t="shared" si="11"/>
         <v>8.0481608891240572</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:I1">
+  <autoFilter ref="B1:I1" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:I120">
       <sortCondition descending="1" ref="H1"/>
     </sortState>
